--- a/13.0 FORMATO N°05-B IES PATAYPAMPA/FORMATO 5B IES PATAYPAMPA.xlsx
+++ b/13.0 FORMATO N°05-B IES PATAYPAMPA/FORMATO 5B IES PATAYPAMPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0007-PROGRESO\13.0 FORMATO N°05-B REGISTRO AGREGADO DE IDEAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0009\13.0 FORMATO N°05-B IES PATAYPAMPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E56572F-39D2-45E2-9F00-6C8386210733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A664CD7E-4A14-4DE5-B876-C7ABA1E1C34B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6168" yWindow="-216" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F08 IDEA IOARR" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'F08 IDEA IOARR'!$A$1:$M$104</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -268,9 +268,6 @@
     <t>JUAN FRANCISCO CISNEROS SULLCAHUAMAN</t>
   </si>
   <si>
-    <t>0104 EDUCACIÓN PRIMARIA</t>
-  </si>
-  <si>
     <t>GERENCIA REGIONAL DE INFRAESTRUCTURA</t>
   </si>
   <si>
@@ -280,19 +277,22 @@
     <t>MIGUEL ANGEL AZURIN SOLIS</t>
   </si>
   <si>
-    <t>“OPTIMIZACIÓN MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA “FRAY DIEGO ORTIZ” – PROGRESO, DISTRITO PROGRESO, PROVINCIA GRAU, DEPARTAMENTO APURÍMAC”</t>
-  </si>
-  <si>
     <t>SERVICIO DE EDUCACIÓN SECUNDARIA</t>
   </si>
   <si>
     <t xml:space="preserve">Porcentaje de locales educativos con el servicio de educación secundaria con capacidad instalada inadecuada </t>
   </si>
   <si>
-    <t>INSTITUCIÓN EDUCATIVA SECUNDARIA "FRAY DIEGO ORTIZ" PROGRESO</t>
-  </si>
-  <si>
-    <t>PROGRESO</t>
+    <t>“OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA DEPORTIVA MULTIUSO DE LA INSTITUCIÓN EDUCATIVA SECUNDARIA “JUAN ESPINOZA MEDRANO” – PATAYPAMPA, DISTRITO PATAYPAMPA, PROVINCIA GRAU, DEPARTAMENTO APURÍMAC”</t>
+  </si>
+  <si>
+    <t>0105 EDUCACIÓN SECUNDARIA</t>
+  </si>
+  <si>
+    <t>INSTITUCIÓN EDUCATIVA SECUNDARIA "JUAN ESPINOZA MEDRANO" PATAYPAMPA</t>
+  </si>
+  <si>
+    <t>PATAYPAMPA</t>
   </si>
 </sst>
 </file>
@@ -728,6 +728,102 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,110 +842,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1201,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A2:P103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="69" zoomScaleNormal="55" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="55" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1219,66 +1219,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1304,15 +1304,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="F7" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
     </row>
@@ -1350,19 +1350,19 @@
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1384,17 +1384,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -1402,17 +1402,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1420,17 +1420,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
+      <c r="D14" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -1438,17 +1438,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1482,19 +1482,19 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1512,21 +1512,21 @@
     </row>
     <row r="20" spans="1:12" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
@@ -1542,21 +1542,21 @@
     </row>
     <row r="22" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
       <c r="G22" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
+      <c r="H22" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -1624,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="55">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="52"/>
@@ -1663,19 +1663,19 @@
       <c r="A29" s="4">
         <v>4</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1697,17 +1697,17 @@
         <v>4</v>
       </c>
       <c r="C31" s="28"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
@@ -1715,17 +1715,17 @@
         <v>5</v>
       </c>
       <c r="C32" s="28"/>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
@@ -1733,17 +1733,17 @@
         <v>6</v>
       </c>
       <c r="C33" s="28"/>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="64"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1751,17 +1751,17 @@
         <v>7</v>
       </c>
       <c r="C34" s="28"/>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="64"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
@@ -1795,19 +1795,19 @@
       <c r="A37" s="4">
         <v>5</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1829,17 +1829,17 @@
         <v>4</v>
       </c>
       <c r="C39" s="28"/>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="71"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
     </row>
     <row r="40" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
@@ -1847,17 +1847,17 @@
         <v>5</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="71"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
     </row>
     <row r="41" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -1865,17 +1865,17 @@
         <v>8</v>
       </c>
       <c r="C41" s="28"/>
-      <c r="D41" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="71"/>
+      <c r="D41" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
     </row>
     <row r="42" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1883,17 +1883,17 @@
         <v>9</v>
       </c>
       <c r="C42" s="28"/>
-      <c r="D42" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="71"/>
+      <c r="D42" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
     </row>
     <row r="43" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -1927,19 +1927,19 @@
       <c r="A45" s="4">
         <v>6</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
     </row>
     <row r="46" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -1961,17 +1961,17 @@
         <v>4</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="71"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
     </row>
     <row r="48" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
@@ -1979,17 +1979,17 @@
         <v>5</v>
       </c>
       <c r="C48" s="28"/>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="71"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -1997,17 +1997,17 @@
         <v>3</v>
       </c>
       <c r="C49" s="28"/>
-      <c r="D49" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="71"/>
+      <c r="D49" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
     </row>
     <row r="50" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2041,19 +2041,19 @@
       <c r="A52" s="4">
         <v>7</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2077,13 +2077,13 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -2103,14 +2103,14 @@
     </row>
     <row r="56" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -2155,10 +2155,10 @@
       <c r="C59" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="66"/>
+      <c r="E59" s="69"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -2175,10 +2175,10 @@
       <c r="C60" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="91"/>
+      <c r="E60" s="71"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -2218,19 +2218,19 @@
       <c r="A63" s="4">
         <v>8</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -2247,85 +2247,85 @@
     </row>
     <row r="65" spans="1:12" s="35" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="63" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
     </row>
     <row r="66" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="92">
-        <v>387344.83</v>
-      </c>
-      <c r="F66" s="93"/>
-      <c r="G66" s="76">
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="56">
+        <v>441339.29</v>
+      </c>
+      <c r="F66" s="57"/>
+      <c r="G66" s="66">
         <v>699</v>
       </c>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+      <c r="L66" s="82"/>
     </row>
     <row r="67" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="33"/>
       <c r="F67" s="28"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+      <c r="L67" s="82"/>
     </row>
     <row r="68" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="33"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77"/>
-      <c r="L68" s="77"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
     </row>
     <row r="69" spans="1:12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="33"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="76">
+      <c r="G69" s="66">
         <v>2</v>
       </c>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
     </row>
     <row r="70" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -2344,19 +2344,19 @@
       <c r="A71" s="4">
         <v>9</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
     </row>
     <row r="72" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -2373,33 +2373,33 @@
     </row>
     <row r="73" spans="1:12" s="29" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="63" t="s">
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
     </row>
     <row r="74" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="63" t="s">
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="64"/>
+      <c r="F74" s="87"/>
       <c r="G74" s="37"/>
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
@@ -2409,69 +2409,69 @@
     </row>
     <row r="75" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="33"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="75">
+      <c r="G75" s="85">
         <v>699</v>
       </c>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="33"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="33"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="33"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+      <c r="L78" s="82"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -2531,15 +2531,15 @@
     </row>
     <row r="83" spans="1:14" s="29" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="63" t="s">
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="64"/>
+      <c r="F83" s="87"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="J83" s="6"/>
@@ -2553,10 +2553,10 @@
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="41"/>
-      <c r="E84" s="63" t="s">
+      <c r="E84" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="F84" s="64"/>
+      <c r="F84" s="87"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="J84" s="6"/>
@@ -2615,10 +2615,10 @@
       </c>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
-      <c r="E88" s="94" t="s">
+      <c r="E88" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F88" s="95"/>
+      <c r="F88" s="59"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="J88" s="6"/>
@@ -2642,21 +2642,21 @@
       <c r="A90" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
     </row>
     <row r="91" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
@@ -2678,30 +2678,30 @@
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="31"/>
-      <c r="E92" s="84" t="s">
+      <c r="E92" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="84"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
     </row>
     <row r="93" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="25"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="84"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="84"/>
-      <c r="L93" s="84"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
     </row>
     <row r="94" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -2753,23 +2753,23 @@
       <c r="A97" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="74"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
+      <c r="L97" s="84"/>
+      <c r="M97" s="84"/>
+      <c r="N97" s="84"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="84"/>
     </row>
     <row r="98" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
@@ -2845,6 +2845,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B71:L71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="D39:L39"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B97:P97"/>
+    <mergeCell ref="B90:N90"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="J75:L75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L4"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B63:L63"/>
+    <mergeCell ref="D47:L47"/>
+    <mergeCell ref="D48:L48"/>
+    <mergeCell ref="D49:L49"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="B10:L10"/>
@@ -2861,67 +2922,6 @@
     <mergeCell ref="D40:L40"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B63:L63"/>
-    <mergeCell ref="D47:L47"/>
-    <mergeCell ref="D48:L48"/>
-    <mergeCell ref="D49:L49"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L4"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="J66:L66"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B97:P97"/>
-    <mergeCell ref="B90:N90"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="J77:L77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="J78:L78"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="B71:L71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="D39:L39"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B56:G56"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
